--- a/timetabling_GA/results/HK2_CT02/TKB_HocKy_PhongHoc.xlsx
+++ b/timetabling_GA/results/HK2_CT02/TKB_HocKy_PhongHoc.xlsx
@@ -608,16 +608,16 @@
           <t>R102</t>
         </is>
       </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Kinh tế vi mô
-GV: Phan Thị H
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="C8" s="7" t="inlineStr"/>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="7" t="inlineStr"/>
+      <c r="E8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Kinh tế vi mô
+GV: Phan Thị H
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
@@ -626,17 +626,24 @@
       <c r="A9" s="9" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>R103</t>
-        </is>
-      </c>
-      <c r="C9" s="7" t="inlineStr"/>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Kinh tế vĩ mô
+GV: Phan Thị H
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL09
+          <t>Lớp: CL04
 Môn: Kinh tế vĩ mô
 GV: Phan Thị H
 (Lý thuyết)</t>
@@ -652,13 +659,13 @@
       </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C10" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL08
-Môn: Kinh tế vi mô
+Môn: Kinh tế vĩ mô
 GV: Phan Thị H
 (Lý thuyết)</t>
         </is>
@@ -667,46 +674,39 @@
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Kinh tế vĩ mô
-GV: Phan Thị H
-(Lý thuyết)</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
+      <c r="H10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="9" t="n"/>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="inlineStr"/>
+      <c r="D11" s="7" t="inlineStr"/>
+      <c r="E11" s="7" t="inlineStr"/>
+      <c r="F11" s="7" t="inlineStr"/>
+      <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL08
+Môn: Kinh tế vi mô
+GV: Phan Thị H
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="6" t="inlineStr">
         <is>
           <t>C1
 (13:00-15:00)</t>
         </is>
       </c>
-      <c r="B11" s="7" t="inlineStr">
-        <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C11" s="7" t="inlineStr"/>
-      <c r="D11" s="7" t="inlineStr"/>
-      <c r="E11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL09
-Môn: Kinh tế vi mô
-GV: Phan Thị H
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
-      <c r="H11" s="7" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>R103</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C12" s="8" t="inlineStr">
@@ -731,17 +731,17 @@
         </is>
       </c>
       <c r="C13" s="7" t="inlineStr"/>
-      <c r="D13" s="7" t="inlineStr"/>
+      <c r="D13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Kinh tế vi mô
+GV: Phan Thị H
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="E13" s="7" t="inlineStr"/>
       <c r="F13" s="7" t="inlineStr"/>
-      <c r="G13" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL08
-Môn: Kinh tế vĩ mô
-GV: Phan Thị H
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="7" t="inlineStr"/>
     </row>
     <row r="14" ht="60" customHeight="1">
@@ -753,21 +753,21 @@
       </c>
       <c r="B14" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>R103</t>
         </is>
       </c>
       <c r="C14" s="7" t="inlineStr"/>
-      <c r="D14" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Kinh tế vi mô
-GV: Phan Thị H
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="D14" s="7" t="inlineStr"/>
       <c r="E14" s="7" t="inlineStr"/>
       <c r="F14" s="7" t="inlineStr"/>
-      <c r="G14" s="7" t="inlineStr"/>
+      <c r="G14" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Kinh tế vi mô
+GV: Phan Thị H
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="H14" s="7" t="inlineStr"/>
     </row>
   </sheetData>
@@ -888,16 +888,16 @@
           <t>R102</t>
         </is>
       </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Kinh tế vi mô
-GV: Phan Thị H
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="C8" s="7" t="inlineStr"/>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="7" t="inlineStr"/>
+      <c r="E8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Kinh tế vi mô
+GV: Phan Thị H
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
@@ -906,17 +906,24 @@
       <c r="A9" s="9" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>R103</t>
-        </is>
-      </c>
-      <c r="C9" s="7" t="inlineStr"/>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Kinh tế vĩ mô
+GV: Phan Thị H
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL09
+          <t>Lớp: CL04
 Môn: Kinh tế vĩ mô
 GV: Phan Thị H
 (Lý thuyết)</t>
@@ -932,13 +939,13 @@
       </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C10" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL08
-Môn: Kinh tế vi mô
+Môn: Kinh tế vĩ mô
 GV: Phan Thị H
 (Lý thuyết)</t>
         </is>
@@ -947,46 +954,39 @@
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Kinh tế vĩ mô
-GV: Phan Thị H
-(Lý thuyết)</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
+      <c r="H10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="9" t="n"/>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="inlineStr"/>
+      <c r="D11" s="7" t="inlineStr"/>
+      <c r="E11" s="7" t="inlineStr"/>
+      <c r="F11" s="7" t="inlineStr"/>
+      <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL08
+Môn: Kinh tế vi mô
+GV: Phan Thị H
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="6" t="inlineStr">
         <is>
           <t>C1
 (13:00-15:00)</t>
         </is>
       </c>
-      <c r="B11" s="7" t="inlineStr">
-        <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C11" s="7" t="inlineStr"/>
-      <c r="D11" s="7" t="inlineStr"/>
-      <c r="E11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL09
-Môn: Kinh tế vi mô
-GV: Phan Thị H
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
-      <c r="H11" s="7" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>R103</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C12" s="8" t="inlineStr">
@@ -1011,17 +1011,17 @@
         </is>
       </c>
       <c r="C13" s="7" t="inlineStr"/>
-      <c r="D13" s="7" t="inlineStr"/>
+      <c r="D13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Kinh tế vi mô
+GV: Phan Thị H
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="E13" s="7" t="inlineStr"/>
       <c r="F13" s="7" t="inlineStr"/>
-      <c r="G13" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL08
-Môn: Kinh tế vĩ mô
-GV: Phan Thị H
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="7" t="inlineStr"/>
     </row>
     <row r="14" ht="60" customHeight="1">
@@ -1033,21 +1033,21 @@
       </c>
       <c r="B14" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>R103</t>
         </is>
       </c>
       <c r="C14" s="7" t="inlineStr"/>
-      <c r="D14" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Kinh tế vi mô
-GV: Phan Thị H
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="D14" s="7" t="inlineStr"/>
       <c r="E14" s="7" t="inlineStr"/>
       <c r="F14" s="7" t="inlineStr"/>
-      <c r="G14" s="7" t="inlineStr"/>
+      <c r="G14" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Kinh tế vi mô
+GV: Phan Thị H
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="H14" s="7" t="inlineStr"/>
     </row>
   </sheetData>
@@ -1168,16 +1168,16 @@
           <t>R102</t>
         </is>
       </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Kinh tế vi mô
-GV: Phan Thị H
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="C8" s="7" t="inlineStr"/>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="7" t="inlineStr"/>
+      <c r="E8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Kinh tế vi mô
+GV: Phan Thị H
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
@@ -1186,17 +1186,24 @@
       <c r="A9" s="9" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>R103</t>
-        </is>
-      </c>
-      <c r="C9" s="7" t="inlineStr"/>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Kinh tế vĩ mô
+GV: Phan Thị H
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL09
+          <t>Lớp: CL04
 Môn: Kinh tế vĩ mô
 GV: Phan Thị H
 (Lý thuyết)</t>
@@ -1212,13 +1219,13 @@
       </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C10" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL08
-Môn: Kinh tế vi mô
+Môn: Kinh tế vĩ mô
 GV: Phan Thị H
 (Lý thuyết)</t>
         </is>
@@ -1227,46 +1234,39 @@
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Kinh tế vĩ mô
-GV: Phan Thị H
-(Lý thuyết)</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
+      <c r="H10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="9" t="n"/>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="inlineStr"/>
+      <c r="D11" s="7" t="inlineStr"/>
+      <c r="E11" s="7" t="inlineStr"/>
+      <c r="F11" s="7" t="inlineStr"/>
+      <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL08
+Môn: Kinh tế vi mô
+GV: Phan Thị H
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="6" t="inlineStr">
         <is>
           <t>C1
 (13:00-15:00)</t>
         </is>
       </c>
-      <c r="B11" s="7" t="inlineStr">
-        <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C11" s="7" t="inlineStr"/>
-      <c r="D11" s="7" t="inlineStr"/>
-      <c r="E11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL09
-Môn: Kinh tế vi mô
-GV: Phan Thị H
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
-      <c r="H11" s="7" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>R103</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C12" s="8" t="inlineStr">
@@ -1291,17 +1291,17 @@
         </is>
       </c>
       <c r="C13" s="7" t="inlineStr"/>
-      <c r="D13" s="7" t="inlineStr"/>
+      <c r="D13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Kinh tế vi mô
+GV: Phan Thị H
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="E13" s="7" t="inlineStr"/>
       <c r="F13" s="7" t="inlineStr"/>
-      <c r="G13" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL08
-Môn: Kinh tế vĩ mô
-GV: Phan Thị H
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="7" t="inlineStr"/>
     </row>
     <row r="14" ht="60" customHeight="1">
@@ -1313,21 +1313,21 @@
       </c>
       <c r="B14" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>R103</t>
         </is>
       </c>
       <c r="C14" s="7" t="inlineStr"/>
-      <c r="D14" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Kinh tế vi mô
-GV: Phan Thị H
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="D14" s="7" t="inlineStr"/>
       <c r="E14" s="7" t="inlineStr"/>
       <c r="F14" s="7" t="inlineStr"/>
-      <c r="G14" s="7" t="inlineStr"/>
+      <c r="G14" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Kinh tế vi mô
+GV: Phan Thị H
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="H14" s="7" t="inlineStr"/>
     </row>
   </sheetData>
@@ -1448,16 +1448,16 @@
           <t>R102</t>
         </is>
       </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Kinh tế vi mô
-GV: Phan Thị H
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="C8" s="7" t="inlineStr"/>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="7" t="inlineStr"/>
+      <c r="E8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Kinh tế vi mô
+GV: Phan Thị H
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
@@ -1466,17 +1466,24 @@
       <c r="A9" s="9" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>R103</t>
-        </is>
-      </c>
-      <c r="C9" s="7" t="inlineStr"/>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Kinh tế vĩ mô
+GV: Phan Thị H
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL09
+          <t>Lớp: CL04
 Môn: Kinh tế vĩ mô
 GV: Phan Thị H
 (Lý thuyết)</t>
@@ -1492,13 +1499,13 @@
       </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C10" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL08
-Môn: Kinh tế vi mô
+Môn: Kinh tế vĩ mô
 GV: Phan Thị H
 (Lý thuyết)</t>
         </is>
@@ -1507,46 +1514,39 @@
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Kinh tế vĩ mô
-GV: Phan Thị H
-(Lý thuyết)</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
+      <c r="H10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="9" t="n"/>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="inlineStr"/>
+      <c r="D11" s="7" t="inlineStr"/>
+      <c r="E11" s="7" t="inlineStr"/>
+      <c r="F11" s="7" t="inlineStr"/>
+      <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL08
+Môn: Kinh tế vi mô
+GV: Phan Thị H
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="6" t="inlineStr">
         <is>
           <t>C1
 (13:00-15:00)</t>
         </is>
       </c>
-      <c r="B11" s="7" t="inlineStr">
-        <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C11" s="7" t="inlineStr"/>
-      <c r="D11" s="7" t="inlineStr"/>
-      <c r="E11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL09
-Môn: Kinh tế vi mô
-GV: Phan Thị H
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
-      <c r="H11" s="7" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>R103</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C12" s="8" t="inlineStr">
@@ -1571,17 +1571,17 @@
         </is>
       </c>
       <c r="C13" s="7" t="inlineStr"/>
-      <c r="D13" s="7" t="inlineStr"/>
+      <c r="D13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Kinh tế vi mô
+GV: Phan Thị H
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="E13" s="7" t="inlineStr"/>
       <c r="F13" s="7" t="inlineStr"/>
-      <c r="G13" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL08
-Môn: Kinh tế vĩ mô
-GV: Phan Thị H
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="7" t="inlineStr"/>
     </row>
     <row r="14" ht="60" customHeight="1">
@@ -1593,21 +1593,21 @@
       </c>
       <c r="B14" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>R103</t>
         </is>
       </c>
       <c r="C14" s="7" t="inlineStr"/>
-      <c r="D14" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Kinh tế vi mô
-GV: Phan Thị H
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="D14" s="7" t="inlineStr"/>
       <c r="E14" s="7" t="inlineStr"/>
       <c r="F14" s="7" t="inlineStr"/>
-      <c r="G14" s="7" t="inlineStr"/>
+      <c r="G14" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Kinh tế vi mô
+GV: Phan Thị H
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="H14" s="7" t="inlineStr"/>
     </row>
   </sheetData>
@@ -1728,16 +1728,16 @@
           <t>R102</t>
         </is>
       </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Kinh tế vi mô
-GV: Phan Thị H
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="C8" s="7" t="inlineStr"/>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="7" t="inlineStr"/>
+      <c r="E8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Kinh tế vi mô
+GV: Phan Thị H
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
@@ -1746,17 +1746,24 @@
       <c r="A9" s="9" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>R103</t>
-        </is>
-      </c>
-      <c r="C9" s="7" t="inlineStr"/>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Kinh tế vĩ mô
+GV: Phan Thị H
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL09
+          <t>Lớp: CL04
 Môn: Kinh tế vĩ mô
 GV: Phan Thị H
 (Lý thuyết)</t>
@@ -1772,13 +1779,13 @@
       </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C10" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL08
-Môn: Kinh tế vi mô
+Môn: Kinh tế vĩ mô
 GV: Phan Thị H
 (Lý thuyết)</t>
         </is>
@@ -1787,46 +1794,39 @@
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Kinh tế vĩ mô
-GV: Phan Thị H
-(Lý thuyết)</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
+      <c r="H10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="9" t="n"/>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="inlineStr"/>
+      <c r="D11" s="7" t="inlineStr"/>
+      <c r="E11" s="7" t="inlineStr"/>
+      <c r="F11" s="7" t="inlineStr"/>
+      <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL08
+Môn: Kinh tế vi mô
+GV: Phan Thị H
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="6" t="inlineStr">
         <is>
           <t>C1
 (13:00-15:00)</t>
         </is>
       </c>
-      <c r="B11" s="7" t="inlineStr">
-        <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C11" s="7" t="inlineStr"/>
-      <c r="D11" s="7" t="inlineStr"/>
-      <c r="E11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL09
-Môn: Kinh tế vi mô
-GV: Phan Thị H
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
-      <c r="H11" s="7" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>R103</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C12" s="8" t="inlineStr">
@@ -1851,17 +1851,17 @@
         </is>
       </c>
       <c r="C13" s="7" t="inlineStr"/>
-      <c r="D13" s="7" t="inlineStr"/>
+      <c r="D13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Kinh tế vi mô
+GV: Phan Thị H
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="E13" s="7" t="inlineStr"/>
       <c r="F13" s="7" t="inlineStr"/>
-      <c r="G13" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL08
-Môn: Kinh tế vĩ mô
-GV: Phan Thị H
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="7" t="inlineStr"/>
     </row>
     <row r="14" ht="60" customHeight="1">
@@ -1873,21 +1873,21 @@
       </c>
       <c r="B14" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>R103</t>
         </is>
       </c>
       <c r="C14" s="7" t="inlineStr"/>
-      <c r="D14" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Kinh tế vi mô
-GV: Phan Thị H
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="D14" s="7" t="inlineStr"/>
       <c r="E14" s="7" t="inlineStr"/>
       <c r="F14" s="7" t="inlineStr"/>
-      <c r="G14" s="7" t="inlineStr"/>
+      <c r="G14" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Kinh tế vi mô
+GV: Phan Thị H
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="H14" s="7" t="inlineStr"/>
     </row>
   </sheetData>
@@ -2008,16 +2008,16 @@
           <t>R102</t>
         </is>
       </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Kinh tế vi mô
-GV: Phan Thị H
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="C8" s="7" t="inlineStr"/>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="7" t="inlineStr"/>
+      <c r="E8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Kinh tế vi mô
+GV: Phan Thị H
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
@@ -2026,17 +2026,24 @@
       <c r="A9" s="9" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>R103</t>
-        </is>
-      </c>
-      <c r="C9" s="7" t="inlineStr"/>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Kinh tế vĩ mô
+GV: Phan Thị H
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL09
+          <t>Lớp: CL04
 Môn: Kinh tế vĩ mô
 GV: Phan Thị H
 (Lý thuyết)</t>
@@ -2052,13 +2059,13 @@
       </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C10" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL08
-Môn: Kinh tế vi mô
+Môn: Kinh tế vĩ mô
 GV: Phan Thị H
 (Lý thuyết)</t>
         </is>
@@ -2067,46 +2074,39 @@
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Kinh tế vĩ mô
-GV: Phan Thị H
-(Lý thuyết)</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
+      <c r="H10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="9" t="n"/>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="inlineStr"/>
+      <c r="D11" s="7" t="inlineStr"/>
+      <c r="E11" s="7" t="inlineStr"/>
+      <c r="F11" s="7" t="inlineStr"/>
+      <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL08
+Môn: Kinh tế vi mô
+GV: Phan Thị H
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="6" t="inlineStr">
         <is>
           <t>C1
 (13:00-15:00)</t>
         </is>
       </c>
-      <c r="B11" s="7" t="inlineStr">
-        <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C11" s="7" t="inlineStr"/>
-      <c r="D11" s="7" t="inlineStr"/>
-      <c r="E11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL09
-Môn: Kinh tế vi mô
-GV: Phan Thị H
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
-      <c r="H11" s="7" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>R103</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C12" s="8" t="inlineStr">
@@ -2131,17 +2131,17 @@
         </is>
       </c>
       <c r="C13" s="7" t="inlineStr"/>
-      <c r="D13" s="7" t="inlineStr"/>
+      <c r="D13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Kinh tế vi mô
+GV: Phan Thị H
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="E13" s="7" t="inlineStr"/>
       <c r="F13" s="7" t="inlineStr"/>
-      <c r="G13" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL08
-Môn: Kinh tế vĩ mô
-GV: Phan Thị H
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="7" t="inlineStr"/>
     </row>
     <row r="14" ht="60" customHeight="1">
@@ -2153,21 +2153,21 @@
       </c>
       <c r="B14" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>R103</t>
         </is>
       </c>
       <c r="C14" s="7" t="inlineStr"/>
-      <c r="D14" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Kinh tế vi mô
-GV: Phan Thị H
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="D14" s="7" t="inlineStr"/>
       <c r="E14" s="7" t="inlineStr"/>
       <c r="F14" s="7" t="inlineStr"/>
-      <c r="G14" s="7" t="inlineStr"/>
+      <c r="G14" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Kinh tế vi mô
+GV: Phan Thị H
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="H14" s="7" t="inlineStr"/>
     </row>
   </sheetData>
@@ -2288,16 +2288,16 @@
           <t>R102</t>
         </is>
       </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Kinh tế vi mô
-GV: Phan Thị H
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="C8" s="7" t="inlineStr"/>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="7" t="inlineStr"/>
+      <c r="E8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Kinh tế vi mô
+GV: Phan Thị H
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
@@ -2306,17 +2306,24 @@
       <c r="A9" s="9" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>R103</t>
-        </is>
-      </c>
-      <c r="C9" s="7" t="inlineStr"/>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Kinh tế vĩ mô
+GV: Phan Thị H
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL09
+          <t>Lớp: CL04
 Môn: Kinh tế vĩ mô
 GV: Phan Thị H
 (Lý thuyết)</t>
@@ -2332,13 +2339,13 @@
       </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C10" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL08
-Môn: Kinh tế vi mô
+Môn: Kinh tế vĩ mô
 GV: Phan Thị H
 (Lý thuyết)</t>
         </is>
@@ -2347,46 +2354,39 @@
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Kinh tế vĩ mô
-GV: Phan Thị H
-(Lý thuyết)</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
+      <c r="H10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="9" t="n"/>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="inlineStr"/>
+      <c r="D11" s="7" t="inlineStr"/>
+      <c r="E11" s="7" t="inlineStr"/>
+      <c r="F11" s="7" t="inlineStr"/>
+      <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL08
+Môn: Kinh tế vi mô
+GV: Phan Thị H
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="6" t="inlineStr">
         <is>
           <t>C1
 (13:00-15:00)</t>
         </is>
       </c>
-      <c r="B11" s="7" t="inlineStr">
-        <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C11" s="7" t="inlineStr"/>
-      <c r="D11" s="7" t="inlineStr"/>
-      <c r="E11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL09
-Môn: Kinh tế vi mô
-GV: Phan Thị H
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
-      <c r="H11" s="7" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>R103</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C12" s="8" t="inlineStr">
@@ -2411,17 +2411,17 @@
         </is>
       </c>
       <c r="C13" s="7" t="inlineStr"/>
-      <c r="D13" s="7" t="inlineStr"/>
+      <c r="D13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Kinh tế vi mô
+GV: Phan Thị H
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="E13" s="7" t="inlineStr"/>
       <c r="F13" s="7" t="inlineStr"/>
-      <c r="G13" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL08
-Môn: Kinh tế vĩ mô
-GV: Phan Thị H
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="7" t="inlineStr"/>
     </row>
     <row r="14" ht="60" customHeight="1">
@@ -2433,21 +2433,21 @@
       </c>
       <c r="B14" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>R103</t>
         </is>
       </c>
       <c r="C14" s="7" t="inlineStr"/>
-      <c r="D14" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Kinh tế vi mô
-GV: Phan Thị H
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="D14" s="7" t="inlineStr"/>
       <c r="E14" s="7" t="inlineStr"/>
       <c r="F14" s="7" t="inlineStr"/>
-      <c r="G14" s="7" t="inlineStr"/>
+      <c r="G14" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Kinh tế vi mô
+GV: Phan Thị H
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="H14" s="7" t="inlineStr"/>
     </row>
   </sheetData>
@@ -2568,16 +2568,16 @@
           <t>R102</t>
         </is>
       </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Kinh tế vi mô
-GV: Phan Thị H
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="C8" s="7" t="inlineStr"/>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="7" t="inlineStr"/>
+      <c r="E8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Kinh tế vi mô
+GV: Phan Thị H
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
@@ -2586,17 +2586,24 @@
       <c r="A9" s="9" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>R103</t>
-        </is>
-      </c>
-      <c r="C9" s="7" t="inlineStr"/>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Kinh tế vĩ mô
+GV: Phan Thị H
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL09
+          <t>Lớp: CL04
 Môn: Kinh tế vĩ mô
 GV: Phan Thị H
 (Lý thuyết)</t>
@@ -2612,13 +2619,13 @@
       </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C10" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL08
-Môn: Kinh tế vi mô
+Môn: Kinh tế vĩ mô
 GV: Phan Thị H
 (Lý thuyết)</t>
         </is>
@@ -2627,46 +2634,39 @@
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Kinh tế vĩ mô
-GV: Phan Thị H
-(Lý thuyết)</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
+      <c r="H10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="9" t="n"/>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="inlineStr"/>
+      <c r="D11" s="7" t="inlineStr"/>
+      <c r="E11" s="7" t="inlineStr"/>
+      <c r="F11" s="7" t="inlineStr"/>
+      <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL08
+Môn: Kinh tế vi mô
+GV: Phan Thị H
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="6" t="inlineStr">
         <is>
           <t>C1
 (13:00-15:00)</t>
         </is>
       </c>
-      <c r="B11" s="7" t="inlineStr">
-        <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C11" s="7" t="inlineStr"/>
-      <c r="D11" s="7" t="inlineStr"/>
-      <c r="E11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL09
-Môn: Kinh tế vi mô
-GV: Phan Thị H
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
-      <c r="H11" s="7" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>R103</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C12" s="8" t="inlineStr">
@@ -2691,17 +2691,17 @@
         </is>
       </c>
       <c r="C13" s="7" t="inlineStr"/>
-      <c r="D13" s="7" t="inlineStr"/>
+      <c r="D13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Kinh tế vi mô
+GV: Phan Thị H
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="E13" s="7" t="inlineStr"/>
       <c r="F13" s="7" t="inlineStr"/>
-      <c r="G13" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL08
-Môn: Kinh tế vĩ mô
-GV: Phan Thị H
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="7" t="inlineStr"/>
     </row>
     <row r="14" ht="60" customHeight="1">
@@ -2713,21 +2713,21 @@
       </c>
       <c r="B14" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>R103</t>
         </is>
       </c>
       <c r="C14" s="7" t="inlineStr"/>
-      <c r="D14" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Kinh tế vi mô
-GV: Phan Thị H
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="D14" s="7" t="inlineStr"/>
       <c r="E14" s="7" t="inlineStr"/>
       <c r="F14" s="7" t="inlineStr"/>
-      <c r="G14" s="7" t="inlineStr"/>
+      <c r="G14" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Kinh tế vi mô
+GV: Phan Thị H
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="H14" s="7" t="inlineStr"/>
     </row>
   </sheetData>
@@ -2848,16 +2848,16 @@
           <t>R102</t>
         </is>
       </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Kinh tế vi mô
-GV: Phan Thị H
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="C8" s="7" t="inlineStr"/>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="7" t="inlineStr"/>
+      <c r="E8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Kinh tế vi mô
+GV: Phan Thị H
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
@@ -2866,17 +2866,24 @@
       <c r="A9" s="9" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>R103</t>
-        </is>
-      </c>
-      <c r="C9" s="7" t="inlineStr"/>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Kinh tế vĩ mô
+GV: Phan Thị H
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL09
+          <t>Lớp: CL04
 Môn: Kinh tế vĩ mô
 GV: Phan Thị H
 (Lý thuyết)</t>
@@ -2892,13 +2899,13 @@
       </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C10" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL08
-Môn: Kinh tế vi mô
+Môn: Kinh tế vĩ mô
 GV: Phan Thị H
 (Lý thuyết)</t>
         </is>
@@ -2907,46 +2914,39 @@
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Kinh tế vĩ mô
-GV: Phan Thị H
-(Lý thuyết)</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
+      <c r="H10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="9" t="n"/>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="inlineStr"/>
+      <c r="D11" s="7" t="inlineStr"/>
+      <c r="E11" s="7" t="inlineStr"/>
+      <c r="F11" s="7" t="inlineStr"/>
+      <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL08
+Môn: Kinh tế vi mô
+GV: Phan Thị H
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="6" t="inlineStr">
         <is>
           <t>C1
 (13:00-15:00)</t>
         </is>
       </c>
-      <c r="B11" s="7" t="inlineStr">
-        <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C11" s="7" t="inlineStr"/>
-      <c r="D11" s="7" t="inlineStr"/>
-      <c r="E11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL09
-Môn: Kinh tế vi mô
-GV: Phan Thị H
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
-      <c r="H11" s="7" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>R103</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C12" s="8" t="inlineStr">
@@ -2971,17 +2971,17 @@
         </is>
       </c>
       <c r="C13" s="7" t="inlineStr"/>
-      <c r="D13" s="7" t="inlineStr"/>
+      <c r="D13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Kinh tế vi mô
+GV: Phan Thị H
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="E13" s="7" t="inlineStr"/>
       <c r="F13" s="7" t="inlineStr"/>
-      <c r="G13" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL08
-Môn: Kinh tế vĩ mô
-GV: Phan Thị H
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="7" t="inlineStr"/>
     </row>
     <row r="14" ht="60" customHeight="1">
@@ -2993,21 +2993,21 @@
       </c>
       <c r="B14" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>R103</t>
         </is>
       </c>
       <c r="C14" s="7" t="inlineStr"/>
-      <c r="D14" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Kinh tế vi mô
-GV: Phan Thị H
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="D14" s="7" t="inlineStr"/>
       <c r="E14" s="7" t="inlineStr"/>
       <c r="F14" s="7" t="inlineStr"/>
-      <c r="G14" s="7" t="inlineStr"/>
+      <c r="G14" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Kinh tế vi mô
+GV: Phan Thị H
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="H14" s="7" t="inlineStr"/>
     </row>
   </sheetData>
@@ -3128,16 +3128,16 @@
           <t>R102</t>
         </is>
       </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Kinh tế vi mô
-GV: Phan Thị H
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="C8" s="7" t="inlineStr"/>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="7" t="inlineStr"/>
+      <c r="E8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Kinh tế vi mô
+GV: Phan Thị H
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
@@ -3146,17 +3146,24 @@
       <c r="A9" s="9" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>R103</t>
-        </is>
-      </c>
-      <c r="C9" s="7" t="inlineStr"/>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Kinh tế vĩ mô
+GV: Phan Thị H
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL09
+          <t>Lớp: CL04
 Môn: Kinh tế vĩ mô
 GV: Phan Thị H
 (Lý thuyết)</t>
@@ -3172,13 +3179,13 @@
       </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C10" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL08
-Môn: Kinh tế vi mô
+Môn: Kinh tế vĩ mô
 GV: Phan Thị H
 (Lý thuyết)</t>
         </is>
@@ -3187,46 +3194,39 @@
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Kinh tế vĩ mô
-GV: Phan Thị H
-(Lý thuyết)</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
+      <c r="H10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="9" t="n"/>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="inlineStr"/>
+      <c r="D11" s="7" t="inlineStr"/>
+      <c r="E11" s="7" t="inlineStr"/>
+      <c r="F11" s="7" t="inlineStr"/>
+      <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL08
+Môn: Kinh tế vi mô
+GV: Phan Thị H
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="6" t="inlineStr">
         <is>
           <t>C1
 (13:00-15:00)</t>
         </is>
       </c>
-      <c r="B11" s="7" t="inlineStr">
-        <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C11" s="7" t="inlineStr"/>
-      <c r="D11" s="7" t="inlineStr"/>
-      <c r="E11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL09
-Môn: Kinh tế vi mô
-GV: Phan Thị H
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
-      <c r="H11" s="7" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>R103</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C12" s="8" t="inlineStr">
@@ -3251,17 +3251,17 @@
         </is>
       </c>
       <c r="C13" s="7" t="inlineStr"/>
-      <c r="D13" s="7" t="inlineStr"/>
+      <c r="D13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Kinh tế vi mô
+GV: Phan Thị H
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="E13" s="7" t="inlineStr"/>
       <c r="F13" s="7" t="inlineStr"/>
-      <c r="G13" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL08
-Môn: Kinh tế vĩ mô
-GV: Phan Thị H
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="7" t="inlineStr"/>
     </row>
     <row r="14" ht="60" customHeight="1">
@@ -3273,21 +3273,21 @@
       </c>
       <c r="B14" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>R103</t>
         </is>
       </c>
       <c r="C14" s="7" t="inlineStr"/>
-      <c r="D14" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Kinh tế vi mô
-GV: Phan Thị H
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="D14" s="7" t="inlineStr"/>
       <c r="E14" s="7" t="inlineStr"/>
       <c r="F14" s="7" t="inlineStr"/>
-      <c r="G14" s="7" t="inlineStr"/>
+      <c r="G14" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Kinh tế vi mô
+GV: Phan Thị H
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="H14" s="7" t="inlineStr"/>
     </row>
   </sheetData>
@@ -3408,16 +3408,16 @@
           <t>R102</t>
         </is>
       </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Kinh tế vi mô
-GV: Phan Thị H
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="C8" s="7" t="inlineStr"/>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="7" t="inlineStr"/>
+      <c r="E8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Kinh tế vi mô
+GV: Phan Thị H
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
@@ -3426,17 +3426,24 @@
       <c r="A9" s="9" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>R103</t>
-        </is>
-      </c>
-      <c r="C9" s="7" t="inlineStr"/>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Kinh tế vĩ mô
+GV: Phan Thị H
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL09
+          <t>Lớp: CL04
 Môn: Kinh tế vĩ mô
 GV: Phan Thị H
 (Lý thuyết)</t>
@@ -3452,13 +3459,13 @@
       </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C10" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL08
-Môn: Kinh tế vi mô
+Môn: Kinh tế vĩ mô
 GV: Phan Thị H
 (Lý thuyết)</t>
         </is>
@@ -3467,46 +3474,39 @@
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Kinh tế vĩ mô
-GV: Phan Thị H
-(Lý thuyết)</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
+      <c r="H10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="9" t="n"/>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="inlineStr"/>
+      <c r="D11" s="7" t="inlineStr"/>
+      <c r="E11" s="7" t="inlineStr"/>
+      <c r="F11" s="7" t="inlineStr"/>
+      <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL08
+Môn: Kinh tế vi mô
+GV: Phan Thị H
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="6" t="inlineStr">
         <is>
           <t>C1
 (13:00-15:00)</t>
         </is>
       </c>
-      <c r="B11" s="7" t="inlineStr">
-        <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C11" s="7" t="inlineStr"/>
-      <c r="D11" s="7" t="inlineStr"/>
-      <c r="E11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL09
-Môn: Kinh tế vi mô
-GV: Phan Thị H
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
-      <c r="H11" s="7" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>R103</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C12" s="8" t="inlineStr">
@@ -3531,17 +3531,17 @@
         </is>
       </c>
       <c r="C13" s="7" t="inlineStr"/>
-      <c r="D13" s="7" t="inlineStr"/>
+      <c r="D13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Kinh tế vi mô
+GV: Phan Thị H
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="E13" s="7" t="inlineStr"/>
       <c r="F13" s="7" t="inlineStr"/>
-      <c r="G13" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL08
-Môn: Kinh tế vĩ mô
-GV: Phan Thị H
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="7" t="inlineStr"/>
     </row>
     <row r="14" ht="60" customHeight="1">
@@ -3553,21 +3553,21 @@
       </c>
       <c r="B14" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>R103</t>
         </is>
       </c>
       <c r="C14" s="7" t="inlineStr"/>
-      <c r="D14" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Kinh tế vi mô
-GV: Phan Thị H
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="D14" s="7" t="inlineStr"/>
       <c r="E14" s="7" t="inlineStr"/>
       <c r="F14" s="7" t="inlineStr"/>
-      <c r="G14" s="7" t="inlineStr"/>
+      <c r="G14" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Kinh tế vi mô
+GV: Phan Thị H
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="H14" s="7" t="inlineStr"/>
     </row>
   </sheetData>
@@ -3688,16 +3688,16 @@
           <t>R102</t>
         </is>
       </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Kinh tế vi mô
-GV: Phan Thị H
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="C8" s="7" t="inlineStr"/>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="7" t="inlineStr"/>
+      <c r="E8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Kinh tế vi mô
+GV: Phan Thị H
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
@@ -3706,17 +3706,24 @@
       <c r="A9" s="9" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>R103</t>
-        </is>
-      </c>
-      <c r="C9" s="7" t="inlineStr"/>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Kinh tế vĩ mô
+GV: Phan Thị H
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL09
+          <t>Lớp: CL04
 Môn: Kinh tế vĩ mô
 GV: Phan Thị H
 (Lý thuyết)</t>
@@ -3732,13 +3739,13 @@
       </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C10" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL08
-Môn: Kinh tế vi mô
+Môn: Kinh tế vĩ mô
 GV: Phan Thị H
 (Lý thuyết)</t>
         </is>
@@ -3747,46 +3754,39 @@
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Kinh tế vĩ mô
-GV: Phan Thị H
-(Lý thuyết)</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
+      <c r="H10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="9" t="n"/>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="inlineStr"/>
+      <c r="D11" s="7" t="inlineStr"/>
+      <c r="E11" s="7" t="inlineStr"/>
+      <c r="F11" s="7" t="inlineStr"/>
+      <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL08
+Môn: Kinh tế vi mô
+GV: Phan Thị H
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="6" t="inlineStr">
         <is>
           <t>C1
 (13:00-15:00)</t>
         </is>
       </c>
-      <c r="B11" s="7" t="inlineStr">
-        <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C11" s="7" t="inlineStr"/>
-      <c r="D11" s="7" t="inlineStr"/>
-      <c r="E11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL09
-Môn: Kinh tế vi mô
-GV: Phan Thị H
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
-      <c r="H11" s="7" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>R103</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C12" s="8" t="inlineStr">
@@ -3811,17 +3811,17 @@
         </is>
       </c>
       <c r="C13" s="7" t="inlineStr"/>
-      <c r="D13" s="7" t="inlineStr"/>
+      <c r="D13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Kinh tế vi mô
+GV: Phan Thị H
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="E13" s="7" t="inlineStr"/>
       <c r="F13" s="7" t="inlineStr"/>
-      <c r="G13" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL08
-Môn: Kinh tế vĩ mô
-GV: Phan Thị H
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="7" t="inlineStr"/>
     </row>
     <row r="14" ht="60" customHeight="1">
@@ -3833,21 +3833,21 @@
       </c>
       <c r="B14" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>R103</t>
         </is>
       </c>
       <c r="C14" s="7" t="inlineStr"/>
-      <c r="D14" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Kinh tế vi mô
-GV: Phan Thị H
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="D14" s="7" t="inlineStr"/>
       <c r="E14" s="7" t="inlineStr"/>
       <c r="F14" s="7" t="inlineStr"/>
-      <c r="G14" s="7" t="inlineStr"/>
+      <c r="G14" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Kinh tế vi mô
+GV: Phan Thị H
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="H14" s="7" t="inlineStr"/>
     </row>
   </sheetData>
@@ -3968,16 +3968,16 @@
           <t>R102</t>
         </is>
       </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Kinh tế vi mô
-GV: Phan Thị H
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="C8" s="7" t="inlineStr"/>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="7" t="inlineStr"/>
+      <c r="E8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Kinh tế vi mô
+GV: Phan Thị H
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
@@ -3986,17 +3986,24 @@
       <c r="A9" s="9" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>R103</t>
-        </is>
-      </c>
-      <c r="C9" s="7" t="inlineStr"/>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Kinh tế vĩ mô
+GV: Phan Thị H
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL09
+          <t>Lớp: CL04
 Môn: Kinh tế vĩ mô
 GV: Phan Thị H
 (Lý thuyết)</t>
@@ -4012,13 +4019,13 @@
       </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C10" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL08
-Môn: Kinh tế vi mô
+Môn: Kinh tế vĩ mô
 GV: Phan Thị H
 (Lý thuyết)</t>
         </is>
@@ -4027,46 +4034,39 @@
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Kinh tế vĩ mô
-GV: Phan Thị H
-(Lý thuyết)</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
+      <c r="H10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="9" t="n"/>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="inlineStr"/>
+      <c r="D11" s="7" t="inlineStr"/>
+      <c r="E11" s="7" t="inlineStr"/>
+      <c r="F11" s="7" t="inlineStr"/>
+      <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL08
+Môn: Kinh tế vi mô
+GV: Phan Thị H
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="6" t="inlineStr">
         <is>
           <t>C1
 (13:00-15:00)</t>
         </is>
       </c>
-      <c r="B11" s="7" t="inlineStr">
-        <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C11" s="7" t="inlineStr"/>
-      <c r="D11" s="7" t="inlineStr"/>
-      <c r="E11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL09
-Môn: Kinh tế vi mô
-GV: Phan Thị H
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
-      <c r="H11" s="7" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>R103</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C12" s="8" t="inlineStr">
@@ -4091,17 +4091,17 @@
         </is>
       </c>
       <c r="C13" s="7" t="inlineStr"/>
-      <c r="D13" s="7" t="inlineStr"/>
+      <c r="D13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Kinh tế vi mô
+GV: Phan Thị H
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="E13" s="7" t="inlineStr"/>
       <c r="F13" s="7" t="inlineStr"/>
-      <c r="G13" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL08
-Môn: Kinh tế vĩ mô
-GV: Phan Thị H
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="7" t="inlineStr"/>
     </row>
     <row r="14" ht="60" customHeight="1">
@@ -4113,21 +4113,21 @@
       </c>
       <c r="B14" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>R103</t>
         </is>
       </c>
       <c r="C14" s="7" t="inlineStr"/>
-      <c r="D14" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Kinh tế vi mô
-GV: Phan Thị H
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="D14" s="7" t="inlineStr"/>
       <c r="E14" s="7" t="inlineStr"/>
       <c r="F14" s="7" t="inlineStr"/>
-      <c r="G14" s="7" t="inlineStr"/>
+      <c r="G14" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Kinh tế vi mô
+GV: Phan Thị H
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="H14" s="7" t="inlineStr"/>
     </row>
   </sheetData>
@@ -4248,16 +4248,16 @@
           <t>R102</t>
         </is>
       </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Kinh tế vi mô
-GV: Phan Thị H
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="C8" s="7" t="inlineStr"/>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="7" t="inlineStr"/>
+      <c r="E8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Kinh tế vi mô
+GV: Phan Thị H
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
@@ -4266,17 +4266,24 @@
       <c r="A9" s="9" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>R103</t>
-        </is>
-      </c>
-      <c r="C9" s="7" t="inlineStr"/>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Kinh tế vĩ mô
+GV: Phan Thị H
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL09
+          <t>Lớp: CL04
 Môn: Kinh tế vĩ mô
 GV: Phan Thị H
 (Lý thuyết)</t>
@@ -4292,13 +4299,13 @@
       </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C10" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL08
-Môn: Kinh tế vi mô
+Môn: Kinh tế vĩ mô
 GV: Phan Thị H
 (Lý thuyết)</t>
         </is>
@@ -4307,46 +4314,39 @@
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Kinh tế vĩ mô
-GV: Phan Thị H
-(Lý thuyết)</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
+      <c r="H10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="9" t="n"/>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="inlineStr"/>
+      <c r="D11" s="7" t="inlineStr"/>
+      <c r="E11" s="7" t="inlineStr"/>
+      <c r="F11" s="7" t="inlineStr"/>
+      <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL08
+Môn: Kinh tế vi mô
+GV: Phan Thị H
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="6" t="inlineStr">
         <is>
           <t>C1
 (13:00-15:00)</t>
         </is>
       </c>
-      <c r="B11" s="7" t="inlineStr">
-        <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C11" s="7" t="inlineStr"/>
-      <c r="D11" s="7" t="inlineStr"/>
-      <c r="E11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL09
-Môn: Kinh tế vi mô
-GV: Phan Thị H
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
-      <c r="H11" s="7" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>R103</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C12" s="8" t="inlineStr">
@@ -4371,17 +4371,17 @@
         </is>
       </c>
       <c r="C13" s="7" t="inlineStr"/>
-      <c r="D13" s="7" t="inlineStr"/>
+      <c r="D13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Kinh tế vi mô
+GV: Phan Thị H
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="E13" s="7" t="inlineStr"/>
       <c r="F13" s="7" t="inlineStr"/>
-      <c r="G13" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL08
-Môn: Kinh tế vĩ mô
-GV: Phan Thị H
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="7" t="inlineStr"/>
     </row>
     <row r="14" ht="60" customHeight="1">
@@ -4393,21 +4393,21 @@
       </c>
       <c r="B14" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>R103</t>
         </is>
       </c>
       <c r="C14" s="7" t="inlineStr"/>
-      <c r="D14" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Kinh tế vi mô
-GV: Phan Thị H
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="D14" s="7" t="inlineStr"/>
       <c r="E14" s="7" t="inlineStr"/>
       <c r="F14" s="7" t="inlineStr"/>
-      <c r="G14" s="7" t="inlineStr"/>
+      <c r="G14" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Kinh tế vi mô
+GV: Phan Thị H
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="H14" s="7" t="inlineStr"/>
     </row>
   </sheetData>
@@ -4528,16 +4528,16 @@
           <t>R102</t>
         </is>
       </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL03
-Môn: Kinh tế vi mô
-GV: Phan Thị H
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="C8" s="7" t="inlineStr"/>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="7" t="inlineStr"/>
+      <c r="E8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL04
+Môn: Kinh tế vi mô
+GV: Phan Thị H
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
@@ -4546,17 +4546,24 @@
       <c r="A9" s="9" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>R103</t>
-        </is>
-      </c>
-      <c r="C9" s="7" t="inlineStr"/>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Kinh tế vĩ mô
+GV: Phan Thị H
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL09
+          <t>Lớp: CL04
 Môn: Kinh tế vĩ mô
 GV: Phan Thị H
 (Lý thuyết)</t>
@@ -4572,13 +4579,13 @@
       </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C10" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL08
-Môn: Kinh tế vi mô
+Môn: Kinh tế vĩ mô
 GV: Phan Thị H
 (Lý thuyết)</t>
         </is>
@@ -4587,46 +4594,39 @@
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Kinh tế vĩ mô
-GV: Phan Thị H
-(Lý thuyết)</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
+      <c r="H10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="9" t="n"/>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="inlineStr"/>
+      <c r="D11" s="7" t="inlineStr"/>
+      <c r="E11" s="7" t="inlineStr"/>
+      <c r="F11" s="7" t="inlineStr"/>
+      <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL08
+Môn: Kinh tế vi mô
+GV: Phan Thị H
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="6" t="inlineStr">
         <is>
           <t>C1
 (13:00-15:00)</t>
         </is>
       </c>
-      <c r="B11" s="7" t="inlineStr">
-        <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C11" s="7" t="inlineStr"/>
-      <c r="D11" s="7" t="inlineStr"/>
-      <c r="E11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL09
-Môn: Kinh tế vi mô
-GV: Phan Thị H
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
-      <c r="H11" s="7" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>R103</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C12" s="8" t="inlineStr">
@@ -4651,17 +4651,17 @@
         </is>
       </c>
       <c r="C13" s="7" t="inlineStr"/>
-      <c r="D13" s="7" t="inlineStr"/>
+      <c r="D13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL09
+Môn: Kinh tế vi mô
+GV: Phan Thị H
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="E13" s="7" t="inlineStr"/>
       <c r="F13" s="7" t="inlineStr"/>
-      <c r="G13" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL08
-Môn: Kinh tế vĩ mô
-GV: Phan Thị H
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="7" t="inlineStr"/>
     </row>
     <row r="14" ht="60" customHeight="1">
@@ -4673,21 +4673,21 @@
       </c>
       <c r="B14" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>R103</t>
         </is>
       </c>
       <c r="C14" s="7" t="inlineStr"/>
-      <c r="D14" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL04
-Môn: Kinh tế vi mô
-GV: Phan Thị H
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="D14" s="7" t="inlineStr"/>
       <c r="E14" s="7" t="inlineStr"/>
       <c r="F14" s="7" t="inlineStr"/>
-      <c r="G14" s="7" t="inlineStr"/>
+      <c r="G14" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL03
+Môn: Kinh tế vi mô
+GV: Phan Thị H
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="H14" s="7" t="inlineStr"/>
     </row>
   </sheetData>
